--- a/misc/results/zup/ZCU102_ADV_vs_SideWinder_Master.xlsx
+++ b/misc/results/zup/ZCU102_ADV_vs_SideWinder_Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macaraeg1\Projects\comp\docs\LiMe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macaraeg1\Projects\comp\repositories\lime-apps\misc\results\zup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A67C367-DE59-4974-A665-BB11E7D8BB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF43073A-2C2F-43D7-8AA3-EC7AA46A4224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="633" xr2:uid="{882556CE-AD92-400A-846D-D6BC51444929}"/>
+    <workbookView xWindow="50" yWindow="2330" windowWidth="29930" windowHeight="15460" tabRatio="633" activeTab="4" xr2:uid="{882556CE-AD92-400A-846D-D6BC51444929}"/>
   </bookViews>
   <sheets>
     <sheet name="zup - image (stock2.txt)" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="847">
   <si>
     <t># make D=CLOCKS,STATS RUN_ARGS="-d&lt;int&gt; -v15 -w24000 -h16000 pat pat"</t>
   </si>
@@ -2487,6 +2487,114 @@
   </si>
   <si>
     <t>Mflops/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> make D=STATS,CLOCKS,VAR_DELAY=_GDT_ run</t>
+  </si>
+  <si>
+    <t>aarch64-none-elf-g++ -std=c++11  -O3 -Wall -MMD -DSTATS -DCLOCKS -DVAR_DELAY=_GDT_ -DZYNQ=_ZU_ -DXILTIME -DUSE_MARGS -DMARGS='"-e32Mi -l.60 -c -w1Mi -h.90 -z.99"' -I../src -Ic:/users/macaraeg1/projects/comp/repositories/lime_axi_delayv/shared -Ic:/users/macaraeg1/projects/comp/repositories/lime_axi_delayv/shared/standalone -Ic:/users/macaraeg1/projects/comp/repositories/lime_axi_delayv/standalone/sdk/standalone_bsp_a53/psu_cortexa53_0/include  -c -o rtb.o ../src/rtb.cpp</t>
+  </si>
+  <si>
+    <t>Oper.   time: 0.002380 sec</t>
+  </si>
+  <si>
+    <t>[This test was run 2020-1014; all others were run on date specified in header]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> make D=STATS,CLOCKS run</t>
+  </si>
+  <si>
+    <t>aarch64-none-elf-g++ -std=c++11  -O3 -Wall -MMD -DSTATS -DCLOCKS -DZYNQ=_ZU_ -DXILTIME -DUSE_MARGS -DMARGS='"-e32Mi -l.60 -c -w1Mi -h.90 -z.99"' -I../src -Ic:/users/macaraeg1/projects/comp/repositories/lime_master_187.5MHz/shared -Ic:/users/macaraeg1/projects/comp/repositories/lime_master_187.5MHz/shared/standalone -Ic:/users/macaraeg1/projects/comp/repositories/lime_master_187.5MHz/standalone/sdk/standalone_bsp_a53/psu_cortexa53_0/include  -c -o rtb.o ../src/rtb.cpp</t>
+  </si>
+  <si>
+    <t>Insert  rate: 4410573.007165 ops/sec</t>
+  </si>
+  <si>
+    <t>Run     time: 5.068654 sec</t>
+  </si>
+  <si>
+    <t>Oper.   time: 0.481683 sec</t>
+  </si>
+  <si>
+    <t>Insert  time: 4.586971 sec</t>
+  </si>
+  <si>
+    <t>Stats   time: 19.036530 sec</t>
+  </si>
+  <si>
+    <t>Lookup  rate: 5412221.140987 ops/sec</t>
+  </si>
+  <si>
+    <t>Run     time: 0.196121 sec</t>
+  </si>
+  <si>
+    <t>Oper.   time: 0.002378 sec</t>
+  </si>
+  <si>
+    <t>Lookup  time: 0.193742 sec</t>
+  </si>
+  <si>
+    <t>CPU 72 1809189 4608 115788096 0</t>
+  </si>
+  <si>
+    <t>Startup time: 0.179142 sec</t>
+  </si>
+  <si>
+    <t>Insert  rate: 4411753.022732 ops/sec</t>
+  </si>
+  <si>
+    <t>Run     time: 5.067529 sec</t>
+  </si>
+  <si>
+    <t>Oper.   time: 0.481785 sec</t>
+  </si>
+  <si>
+    <t>Insert  time: 4.585744 sec</t>
+  </si>
+  <si>
+    <t>Stats   time: 20.238777 sec</t>
+  </si>
+  <si>
+    <t>Lookup  rate: 5412609.185070 ops/sec</t>
+  </si>
+  <si>
+    <t>Run     time: 0.196109 sec</t>
+  </si>
+  <si>
+    <t>Lookup  time: 0.193728 sec</t>
+  </si>
+  <si>
+    <t>CPU 72 1809023 4608 115777536 0</t>
+  </si>
+  <si>
+    <t>Startup time: 0.179141 sec</t>
+  </si>
+  <si>
+    <t>Insert  rate: 4345655.991761 ops/sec</t>
+  </si>
+  <si>
+    <t>Run     time: 5.137299 sec</t>
+  </si>
+  <si>
+    <t>Oper.   time: 0.481806 sec</t>
+  </si>
+  <si>
+    <t>Insert  time: 4.655493 sec</t>
+  </si>
+  <si>
+    <t>Stats   time: 20.242415 sec</t>
+  </si>
+  <si>
+    <t>Lookup  rate: 5355981.808256 ops/sec</t>
+  </si>
+  <si>
+    <t>Run     time: 0.198156 sec</t>
+  </si>
+  <si>
+    <t>Lookup  time: 0.195777 sec</t>
+  </si>
+  <si>
+    <t>CPU 72 1809227 4608 115790528 0</t>
   </si>
 </sst>
 </file>
@@ -2835,7 +2943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2979,23 +3087,11 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3040,6 +3136,33 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3618,6 +3741,609 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
+              <a:t>rtb (D=STATS, USE_HASH)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Performance Metric Delta: FDU@187.5MHz vs VLD</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FDU vs VLD (constants)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'zup - rtb (rtb.txt)'!$H$57:$H$64</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Insert rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Run time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oper. Time</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Insert  time</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lookup rate</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Run time</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Oper. Time</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lookup time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'zup - rtb (rtb.txt)'!$I$57:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.8408329419720108E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7933910526271337E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4579374950482874E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2031443662916123E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8531182524326606E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2995277647023155E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3573037376383377E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F49C-4258-BCCD-9FB86AE1FF81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>FDU vs VLD (Gaussians)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'zup - rtb (rtb.txt)'!$H$57:$H$64</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Insert rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Run time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oper. Time</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Insert  time</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lookup rate</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Run time</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Oper. Time</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lookup time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'zup - rtb (rtb.txt)'!$K$57:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.8360307211303718E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7887083072612318E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6539204529058279E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1977333818646722E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8340241699465856E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2777634369416547E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3353671445953048E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F49C-4258-BCCD-9FB86AE1FF81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="759681416"/>
+        <c:axId val="759687648"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'zup - rtb (rtb.txt)'!$H$57:$H$64</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Insert rate</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Run time</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Oper. Time</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Insert  time</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Lookup rate</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Run time</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Oper. Time</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Lookup time</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'zup - rtb (rtb.txt)'!$J$57:$J$64</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-F49C-4258-BCCD-9FB86AE1FF81}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="759681416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="759687648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="759687648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Performance Delta, Absolute Value</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="759681416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>spmv (D=STATS, CLOCKS)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
@@ -4124,7 +4850,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6255,16 +6981,13 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr>
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US" sz="1000"/>
@@ -8746,28 +9469,23 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>rtb (D=STATS, USE_HASH)</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>rtb (D=STATS,CLOCKS)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Performance Metric Delta: FDU@187.5MHz vs VLD</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance Metric Delta: FDU@187.5MHz</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs VLD</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -8825,7 +9543,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'zup - rtb (rtb.txt)'!$H$57:$H$64</c:f>
+              <c:f>'zup - rtb (rtb_sidewinder.txt)'!$H$101:$H$108</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -8857,40 +9575,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'zup - rtb (rtb.txt)'!$I$57:$I$64</c:f>
+              <c:f>'zup - rtb (rtb_sidewinder.txt)'!$I$101:$I$108</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.8408329419720108E-2</c:v>
+                  <c:v>2.6754246332235797E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7933910526271337E-2</c:v>
+                  <c:v>2.2195241576955985E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4579374950482874E-5</c:v>
+                  <c:v>2.1175752517744347E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2031443662916123E-2</c:v>
+                  <c:v>2.6749678600542474E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8531182524326606E-2</c:v>
+                  <c:v>7.1697750866193117E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2995277647023155E-2</c:v>
+                  <c:v>6.1186716363797078E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.2615643397813139E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.3573037376383377E-2</c:v>
+                  <c:v>7.2261048198048151E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F49C-4258-BCCD-9FB86AE1FF81}"/>
+              <c16:uniqueId val="{00000000-1F82-4248-8208-83151A0CB23A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8912,7 +9630,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'zup - rtb (rtb.txt)'!$H$57:$H$64</c:f>
+              <c:f>'zup - rtb (rtb_sidewinder.txt)'!$H$101:$H$108</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -8944,40 +9662,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'zup - rtb (rtb.txt)'!$K$57:$K$64</c:f>
+              <c:f>'zup - rtb (rtb_sidewinder.txt)'!$K$101:$K$108</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.8360307211303718E-2</c:v>
+                  <c:v>1.471849922868115E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7887083072612318E-2</c:v>
+                  <c:v>1.3543043182667266E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6539204529058279E-6</c:v>
+                  <c:v>2.5535466271394205E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1977333818646722E-2</c:v>
+                  <c:v>1.4938398346098057E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8340241699465856E-2</c:v>
+                  <c:v>1.0391174208514336E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2777634369416547E-2</c:v>
+                  <c:v>1.0376247316707589E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8.410428931876642E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.3353671445953048E-2</c:v>
+                  <c:v>1.0503659505940937E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F49C-4258-BCCD-9FB86AE1FF81}"/>
+              <c16:uniqueId val="{00000002-1F82-4248-8208-83151A0CB23A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8991,8 +9709,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="759681416"/>
-        <c:axId val="759687648"/>
+        <c:axId val="652126952"/>
+        <c:axId val="652125312"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -9014,7 +9732,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'zup - rtb (rtb.txt)'!$H$57:$H$64</c15:sqref>
+                          <c15:sqref>'zup - rtb (rtb_sidewinder.txt)'!$H$101:$H$108</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9052,19 +9770,19 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'zup - rtb (rtb.txt)'!$J$57:$J$64</c15:sqref>
+                          <c15:sqref>'zup - rtb (rtb_sidewinder.txt)'!$J$101:$J$108</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>0.00%</c:formatCode>
                       <c:ptCount val="8"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-F49C-4258-BCCD-9FB86AE1FF81}"/>
+                    <c16:uniqueId val="{00000001-1F82-4248-8208-83151A0CB23A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -9073,7 +9791,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="759681416"/>
+        <c:axId val="652126952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9116,7 +9834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="759687648"/>
+        <c:crossAx val="652125312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9124,7 +9842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="759687648"/>
+        <c:axId val="652125312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9164,14 +9882,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>Performance Delta, Absolute Value</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1000">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -9235,7 +9948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="759681416"/>
+        <c:crossAx val="652126952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9396,6 +10109,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11264,6 +12017,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -15593,6 +16849,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>492124</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>727074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120649</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151A7A81-6D3C-40B6-8573-879B0B56306C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16018,7 +17310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD02D300-48B2-4F89-BEDC-E90A60934DE5}">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
@@ -17447,7 +18739,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C99" s="55" t="s">
+      <c r="C99" s="53" t="s">
         <v>790</v>
       </c>
       <c r="D99" s="10">
@@ -17460,7 +18752,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C100" s="55" t="s">
+      <c r="C100" s="53" t="s">
         <v>791</v>
       </c>
       <c r="D100" s="10">
@@ -17473,7 +18765,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C101" s="55" t="s">
+      <c r="C101" s="53" t="s">
         <v>792</v>
       </c>
       <c r="D101" s="10">
@@ -17486,58 +18778,58 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C103" s="56" t="s">
+      <c r="C103" s="54" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C104" s="56" t="s">
+      <c r="C104" s="54" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C105" s="56" t="s">
+      <c r="C105" s="54" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C106" s="56" t="s">
+      <c r="C106" s="54" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C107" s="56"/>
+      <c r="C107" s="54"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C108" s="56" t="s">
+      <c r="C108" s="54" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C109" s="56" t="s">
+      <c r="C109" s="54" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C110" s="56" t="s">
+      <c r="C110" s="54" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C111" s="56" t="s">
+      <c r="C111" s="54" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C116" s="55"/>
+      <c r="C116" s="53"/>
       <c r="E116" s="4"/>
     </row>
     <row r="117" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C117" s="55"/>
+      <c r="C117" s="53"/>
       <c r="E117" s="4"/>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C118" s="55"/>
+      <c r="C118" s="53"/>
       <c r="E118" s="4"/>
     </row>
   </sheetData>
@@ -20527,17 +21819,17 @@
       <c r="D1" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="70" t="s">
         <v>672</v>
       </c>
-      <c r="F1" s="58"/>
+      <c r="F1" s="71"/>
       <c r="G1" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="70" t="s">
         <v>672</v>
       </c>
-      <c r="I1" s="58"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E2" s="44"/>
@@ -20550,7 +21842,7 @@
       <c r="A3" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="55" t="s">
         <v>262</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -20559,19 +21851,19 @@
       <c r="D3" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="65"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -20580,30 +21872,30 @@
       <c r="D4" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="E4" s="66"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="41"/>
       <c r="G4" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="H4" s="66"/>
+      <c r="H4" s="62"/>
       <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
-      <c r="B5" s="60"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="66"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="41"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="66"/>
+      <c r="H5" s="62"/>
       <c r="I5" s="41"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="56" t="s">
         <v>238</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -20612,19 +21904,19 @@
       <c r="D6" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E6" s="66"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="41"/>
       <c r="G6" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="H6" s="66"/>
+      <c r="H6" s="62"/>
       <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="56" t="s">
         <v>239</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -20633,19 +21925,19 @@
       <c r="D7" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E7" s="66"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="41"/>
       <c r="G7" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="62"/>
       <c r="I7" s="41"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="56" t="s">
         <v>238</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -20654,19 +21946,19 @@
       <c r="D8" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E8" s="66"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="41"/>
       <c r="G8" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="H8" s="66"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="56" t="s">
         <v>240</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -20675,19 +21967,19 @@
       <c r="D9" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="66"/>
+      <c r="E9" s="62"/>
       <c r="F9" s="41"/>
       <c r="G9" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="H9" s="66"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="56" t="s">
         <v>238</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -20696,19 +21988,19 @@
       <c r="D10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E10" s="66"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="41"/>
       <c r="G10" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="H10" s="66"/>
+      <c r="H10" s="62"/>
       <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="56" t="s">
         <v>241</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -20717,19 +22009,19 @@
       <c r="D11" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E11" s="66"/>
+      <c r="E11" s="62"/>
       <c r="F11" s="41"/>
       <c r="G11" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="62"/>
       <c r="I11" s="41"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="56" t="s">
         <v>242</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -20738,19 +22030,19 @@
       <c r="D12" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E12" s="66"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="41"/>
       <c r="G12" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="H12" s="66"/>
+      <c r="H12" s="62"/>
       <c r="I12" s="41"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="56" t="s">
         <v>243</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -20759,19 +22051,19 @@
       <c r="D13" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E13" s="66"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="41"/>
       <c r="G13" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="H13" s="66"/>
+      <c r="H13" s="62"/>
       <c r="I13" s="41"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="56" t="s">
         <v>244</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -20780,19 +22072,19 @@
       <c r="D14" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E14" s="66"/>
+      <c r="E14" s="62"/>
       <c r="F14" s="41"/>
       <c r="G14" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="H14" s="66"/>
+      <c r="H14" s="62"/>
       <c r="I14" s="41"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="56" t="s">
         <v>245</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -20801,19 +22093,19 @@
       <c r="D15" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E15" s="66"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="41"/>
       <c r="G15" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="H15" s="66"/>
+      <c r="H15" s="62"/>
       <c r="I15" s="41"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="56" t="s">
         <v>246</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -20822,19 +22114,19 @@
       <c r="D16" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E16" s="66"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="41"/>
       <c r="G16" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="H16" s="66"/>
+      <c r="H16" s="62"/>
       <c r="I16" s="41"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="56" t="s">
         <v>247</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -20843,19 +22135,19 @@
       <c r="D17" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E17" s="66"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="41"/>
       <c r="G17" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="H17" s="66"/>
+      <c r="H17" s="62"/>
       <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="56" t="s">
         <v>238</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -20864,19 +22156,19 @@
       <c r="D18" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E18" s="66"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="41"/>
       <c r="G18" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="H18" s="66"/>
+      <c r="H18" s="62"/>
       <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="56" t="s">
         <v>248</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -20885,19 +22177,19 @@
       <c r="D19" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="63" t="s">
         <v>384</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="64" t="s">
         <v>385</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="63" t="s">
         <v>384</v>
       </c>
-      <c r="I19" s="68" t="s">
+      <c r="I19" s="64" t="s">
         <v>385</v>
       </c>
     </row>
@@ -20905,7 +22197,7 @@
       <c r="A20" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="56" t="s">
         <v>264</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -20914,22 +22206,22 @@
       <c r="D20" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="63">
         <f>(1380.6-1480.1)/1480.1</f>
         <v>-6.7225187487331944E-2</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="64">
         <f>(0.231777-0.216203)/0.216203</f>
         <v>7.2034153087607494E-2</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="63">
         <f>(1381.5-1480.1)/1480.1</f>
         <v>-6.6617120464833396E-2</v>
       </c>
-      <c r="I20" s="68">
+      <c r="I20" s="64">
         <f>(0.231634-0.216203)/0.216203</f>
         <v>7.1372737658589383E-2</v>
       </c>
@@ -20949,7 +22241,7 @@
       <c r="A21" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="56" t="s">
         <v>265</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -20958,22 +22250,22 @@
       <c r="D21" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="63">
         <f>(1199.2-1492.4)/1492.4</f>
         <v>-0.19646207451085501</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="64">
         <f>(0.266845-0.214418)/0.214418</f>
         <v>0.24450839015381173</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>740</v>
       </c>
-      <c r="H21" s="67">
+      <c r="H21" s="63">
         <f>(1382.5-1492.4)/1492.4</f>
         <v>-7.3639774859287105E-2</v>
       </c>
-      <c r="I21" s="68">
+      <c r="I21" s="64">
         <f>(0.231471-0.214418)/0.214418</f>
         <v>7.9531569177960865E-2</v>
       </c>
@@ -20993,7 +22285,7 @@
       <c r="A22" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="56" t="s">
         <v>266</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -21002,22 +22294,22 @@
       <c r="D22" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="63">
         <f>(1043.1-1156.4)/1156.4</f>
         <v>-9.7976478727084204E-2</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="64">
         <f>(0.46015-0.415066)/0.415066</f>
         <v>0.10861887025195996</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>741</v>
       </c>
-      <c r="H22" s="67">
+      <c r="H22" s="63">
         <f>(1044.3-1156.4)/1156.4</f>
         <v>-9.6938775510204189E-2</v>
       </c>
-      <c r="I22" s="68">
+      <c r="I22" s="64">
         <f>(0.459658-0.415066)/0.415066</f>
         <v>0.10743351659736047</v>
       </c>
@@ -21037,7 +22329,7 @@
       <c r="A23" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="56" t="s">
         <v>267</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -21046,22 +22338,22 @@
       <c r="D23" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="63">
         <f>(1071.6-1146)/1146</f>
         <v>-6.4921465968586473E-2</v>
       </c>
-      <c r="F23" s="68">
+      <c r="F23" s="64">
         <f>(0.44791-0.418836)/0.418836</f>
         <v>6.9416191540364228E-2</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>742</v>
       </c>
-      <c r="H23" s="67">
+      <c r="H23" s="63">
         <f>(1072.3-1146)/1146</f>
         <v>-6.4310645724258333E-2</v>
       </c>
-      <c r="I23" s="68">
+      <c r="I23" s="64">
         <f>(0.447624-0.418836)/0.418836</f>
         <v>6.8733346703721832E-2</v>
       </c>
@@ -21081,7 +22373,7 @@
       <c r="A24" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="56" t="s">
         <v>238</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -21090,19 +22382,19 @@
       <c r="D24" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="69"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="65"/>
       <c r="G24" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="H24" s="66"/>
-      <c r="I24" s="69"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="56" t="s">
         <v>253</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -21111,19 +22403,19 @@
       <c r="D25" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E25" s="66"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="41"/>
       <c r="G25" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="H25" s="66"/>
+      <c r="H25" s="62"/>
       <c r="I25" s="41"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="56" t="s">
         <v>238</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -21132,19 +22424,19 @@
       <c r="D26" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E26" s="66"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="41"/>
       <c r="G26" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="H26" s="66"/>
+      <c r="H26" s="62"/>
       <c r="I26" s="41"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="56" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -21153,67 +22445,67 @@
       <c r="D27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="66"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="41"/>
       <c r="G27" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="66"/>
+      <c r="H27" s="62"/>
       <c r="I27" s="41"/>
     </row>
     <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="58" t="s">
         <v>436</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="58" t="s">
         <v>569</v>
       </c>
-      <c r="E28" s="70"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="42"/>
       <c r="G28" s="37" t="s">
         <v>743</v>
       </c>
-      <c r="H28" s="70"/>
+      <c r="H28" s="66"/>
       <c r="I28" s="42"/>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="66"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="41"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="59" t="s">
         <v>275</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="65"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="H30" s="64"/>
-      <c r="I30" s="65"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="61"/>
     </row>
     <row r="31" spans="1:15" ht="145" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="56" t="s">
         <v>269</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -21222,30 +22514,30 @@
       <c r="D31" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="E31" s="66"/>
+      <c r="E31" s="62"/>
       <c r="F31" s="41"/>
       <c r="G31" s="36" t="s">
         <v>744</v>
       </c>
-      <c r="H31" s="66"/>
+      <c r="H31" s="62"/>
       <c r="I31" s="41"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
-      <c r="B32" s="60"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="66"/>
+      <c r="E32" s="62"/>
       <c r="F32" s="41"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="66"/>
+      <c r="H32" s="62"/>
       <c r="I32" s="41"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="56" t="s">
         <v>238</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -21254,19 +22546,19 @@
       <c r="D33" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E33" s="66"/>
+      <c r="E33" s="62"/>
       <c r="F33" s="41"/>
       <c r="G33" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="H33" s="66"/>
+      <c r="H33" s="62"/>
       <c r="I33" s="41"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="56" t="s">
         <v>239</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -21275,19 +22567,19 @@
       <c r="D34" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E34" s="66"/>
+      <c r="E34" s="62"/>
       <c r="F34" s="41"/>
       <c r="G34" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="H34" s="66"/>
+      <c r="H34" s="62"/>
       <c r="I34" s="41"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="56" t="s">
         <v>238</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -21296,19 +22588,19 @@
       <c r="D35" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E35" s="66"/>
+      <c r="E35" s="62"/>
       <c r="F35" s="41"/>
       <c r="G35" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="H35" s="66"/>
+      <c r="H35" s="62"/>
       <c r="I35" s="41"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="56" t="s">
         <v>240</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -21317,19 +22609,19 @@
       <c r="D36" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E36" s="66"/>
+      <c r="E36" s="62"/>
       <c r="F36" s="41"/>
       <c r="G36" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="H36" s="66"/>
+      <c r="H36" s="62"/>
       <c r="I36" s="41"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="56" t="s">
         <v>238</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -21338,19 +22630,19 @@
       <c r="D37" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E37" s="66"/>
+      <c r="E37" s="62"/>
       <c r="F37" s="41"/>
       <c r="G37" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="H37" s="66"/>
+      <c r="H37" s="62"/>
       <c r="I37" s="41"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="56" t="s">
         <v>241</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -21359,19 +22651,19 @@
       <c r="D38" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E38" s="66"/>
+      <c r="E38" s="62"/>
       <c r="F38" s="41"/>
       <c r="G38" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="H38" s="66"/>
+      <c r="H38" s="62"/>
       <c r="I38" s="41"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="56" t="s">
         <v>242</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -21380,19 +22672,19 @@
       <c r="D39" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E39" s="66"/>
+      <c r="E39" s="62"/>
       <c r="F39" s="41"/>
       <c r="G39" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="H39" s="66"/>
+      <c r="H39" s="62"/>
       <c r="I39" s="41"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="56" t="s">
         <v>243</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -21401,19 +22693,19 @@
       <c r="D40" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E40" s="66"/>
+      <c r="E40" s="62"/>
       <c r="F40" s="41"/>
       <c r="G40" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="H40" s="66"/>
+      <c r="H40" s="62"/>
       <c r="I40" s="41"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="56" t="s">
         <v>244</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -21422,19 +22714,19 @@
       <c r="D41" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E41" s="66"/>
+      <c r="E41" s="62"/>
       <c r="F41" s="41"/>
       <c r="G41" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="H41" s="66"/>
+      <c r="H41" s="62"/>
       <c r="I41" s="41"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="56" t="s">
         <v>245</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -21443,19 +22735,19 @@
       <c r="D42" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E42" s="66"/>
+      <c r="E42" s="62"/>
       <c r="F42" s="41"/>
       <c r="G42" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="H42" s="66"/>
+      <c r="H42" s="62"/>
       <c r="I42" s="41"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="56" t="s">
         <v>246</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -21464,19 +22756,19 @@
       <c r="D43" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E43" s="66"/>
+      <c r="E43" s="62"/>
       <c r="F43" s="41"/>
       <c r="G43" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="H43" s="66"/>
+      <c r="H43" s="62"/>
       <c r="I43" s="41"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="56" t="s">
         <v>247</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -21485,19 +22777,19 @@
       <c r="D44" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E44" s="66"/>
+      <c r="E44" s="62"/>
       <c r="F44" s="41"/>
       <c r="G44" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="H44" s="66"/>
+      <c r="H44" s="62"/>
       <c r="I44" s="41"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="56" t="s">
         <v>238</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -21506,19 +22798,19 @@
       <c r="D45" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E45" s="66"/>
+      <c r="E45" s="62"/>
       <c r="F45" s="41"/>
       <c r="G45" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="H45" s="66"/>
+      <c r="H45" s="62"/>
       <c r="I45" s="41"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="60" t="s">
+      <c r="B46" s="56" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -21527,19 +22819,19 @@
       <c r="D46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="66"/>
+      <c r="E46" s="62"/>
       <c r="F46" s="41"/>
       <c r="G46" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="66"/>
+      <c r="H46" s="62"/>
       <c r="I46" s="41"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="56" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -21548,19 +22840,19 @@
       <c r="D47" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="66"/>
+      <c r="E47" s="62"/>
       <c r="F47" s="41"/>
       <c r="G47" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="66"/>
+      <c r="H47" s="62"/>
       <c r="I47" s="41"/>
     </row>
     <row r="48" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="56" t="s">
         <v>54</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -21569,19 +22861,19 @@
       <c r="D48" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="66"/>
+      <c r="E48" s="62"/>
       <c r="F48" s="41"/>
       <c r="G48" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="66"/>
+      <c r="H48" s="62"/>
       <c r="I48" s="41"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="56" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -21590,19 +22882,19 @@
       <c r="D49" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="66"/>
+      <c r="E49" s="62"/>
       <c r="F49" s="41"/>
       <c r="G49" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H49" s="66"/>
+      <c r="H49" s="62"/>
       <c r="I49" s="41"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="60" t="s">
+      <c r="B50" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -21611,19 +22903,19 @@
       <c r="D50" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="66"/>
+      <c r="E50" s="62"/>
       <c r="F50" s="41"/>
       <c r="G50" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="H50" s="66"/>
+      <c r="H50" s="62"/>
       <c r="I50" s="41"/>
     </row>
     <row r="51" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="60" t="s">
+      <c r="B51" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -21632,19 +22924,19 @@
       <c r="D51" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="66"/>
+      <c r="E51" s="62"/>
       <c r="F51" s="41"/>
       <c r="G51" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="H51" s="66"/>
+      <c r="H51" s="62"/>
       <c r="I51" s="41"/>
     </row>
     <row r="52" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="56" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -21653,19 +22945,19 @@
       <c r="D52" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="66"/>
+      <c r="E52" s="62"/>
       <c r="F52" s="41"/>
       <c r="G52" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="66"/>
+      <c r="H52" s="62"/>
       <c r="I52" s="41"/>
     </row>
     <row r="53" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B53" s="60" t="s">
+      <c r="B53" s="56" t="s">
         <v>248</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -21674,19 +22966,19 @@
       <c r="D53" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="E53" s="67" t="s">
+      <c r="E53" s="63" t="s">
         <v>384</v>
       </c>
-      <c r="F53" s="68" t="s">
+      <c r="F53" s="64" t="s">
         <v>385</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="H53" s="67" t="s">
+      <c r="H53" s="63" t="s">
         <v>384</v>
       </c>
-      <c r="I53" s="68" t="s">
+      <c r="I53" s="64" t="s">
         <v>385</v>
       </c>
     </row>
@@ -21694,7 +22986,7 @@
       <c r="A54" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B54" s="60" t="s">
+      <c r="B54" s="56" t="s">
         <v>270</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -21703,22 +22995,22 @@
       <c r="D54" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="E54" s="67">
+      <c r="E54" s="63">
         <f>(6257.5-6253.5)/6253.5</f>
         <v>6.3964180059166863E-4</v>
       </c>
-      <c r="F54" s="68">
+      <c r="F54" s="64">
         <f>(0.051138-0.051172)/0.051172</f>
         <v>-6.6442585789102066E-4</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>745</v>
       </c>
-      <c r="H54" s="67">
+      <c r="H54" s="63">
         <f>(5267.1-6253.5)/6253.5</f>
         <v>-0.15773566802590544</v>
       </c>
-      <c r="I54" s="68">
+      <c r="I54" s="64">
         <f>(0.060754-0.051172)/0.051172</f>
         <v>0.18725084030329087</v>
       </c>
@@ -21738,7 +23030,7 @@
       <c r="A55" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="56" t="s">
         <v>271</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -21747,22 +23039,22 @@
       <c r="D55" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="E55" s="67">
+      <c r="E55" s="63">
         <f>(6047.4-6047.5)/6047.5</f>
         <v>-1.6535758577984919E-5</v>
       </c>
-      <c r="F55" s="68">
+      <c r="F55" s="64">
         <f>(0.052916-0.052914)/0.052914</f>
         <v>3.7797180330254023E-5</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>746</v>
       </c>
-      <c r="H55" s="67">
+      <c r="H55" s="63">
         <f>(5202.3-6047.5)/6047.5</f>
         <v>-0.13976023150062006</v>
       </c>
-      <c r="I55" s="68">
+      <c r="I55" s="64">
         <f>(0.061511-0.052914)/0.052914</f>
         <v>0.1624711796499981</v>
       </c>
@@ -21782,7 +23074,7 @@
       <c r="A56" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B56" s="60" t="s">
+      <c r="B56" s="56" t="s">
         <v>272</v>
       </c>
       <c r="C56" s="7" t="s">
@@ -21791,22 +23083,22 @@
       <c r="D56" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="E56" s="67">
+      <c r="E56" s="63">
         <f>(4539.8-4536.2)/4536.2</f>
         <v>7.9361580177248891E-4</v>
       </c>
-      <c r="F56" s="68">
+      <c r="F56" s="64">
         <f>(0.105732-0.105815)/0.105815</f>
         <v>-7.8438784671360146E-4</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>747</v>
       </c>
-      <c r="H56" s="67">
+      <c r="H56" s="63">
         <f>(4001.6-4536.2)/4536.2</f>
         <v>-0.11785194656320266</v>
       </c>
-      <c r="I56" s="68">
+      <c r="I56" s="64">
         <f>(0.119952-0.105815)/0.105815</f>
         <v>0.13360109625289415</v>
       </c>
@@ -21826,7 +23118,7 @@
       <c r="A57" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B57" s="60" t="s">
+      <c r="B57" s="56" t="s">
         <v>273</v>
       </c>
       <c r="C57" s="7" t="s">
@@ -21835,22 +23127,22 @@
       <c r="D57" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="E57" s="67">
+      <c r="E57" s="63">
         <f>(4456.2-4466.9)/4466.9</f>
         <v>-2.3953972553672166E-3</v>
       </c>
-      <c r="F57" s="68">
+      <c r="F57" s="64">
         <f>(0.107715-0.107458)/0.107458</f>
         <v>2.3916320795102012E-3</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>748</v>
       </c>
-      <c r="H57" s="67">
+      <c r="H57" s="63">
         <f>(3953.1-4466.9)/4466.9</f>
         <v>-0.11502384203810244</v>
       </c>
-      <c r="I57" s="68">
+      <c r="I57" s="64">
         <f>(0.121423-0.107458)/0.107458</f>
         <v>0.12995775093524917</v>
       </c>
@@ -21870,7 +23162,7 @@
       <c r="A58" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B58" s="60" t="s">
+      <c r="B58" s="56" t="s">
         <v>238</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -21879,19 +23171,19 @@
       <c r="D58" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E58" s="66"/>
+      <c r="E58" s="62"/>
       <c r="F58" s="41"/>
       <c r="G58" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="H58" s="66"/>
+      <c r="H58" s="62"/>
       <c r="I58" s="41"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B59" s="60" t="s">
+      <c r="B59" s="56" t="s">
         <v>253</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -21900,19 +23192,19 @@
       <c r="D59" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E59" s="66"/>
+      <c r="E59" s="62"/>
       <c r="F59" s="41"/>
       <c r="G59" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="H59" s="66"/>
+      <c r="H59" s="62"/>
       <c r="I59" s="41"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B60" s="60" t="s">
+      <c r="B60" s="56" t="s">
         <v>238</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -21921,19 +23213,19 @@
       <c r="D60" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E60" s="66"/>
+      <c r="E60" s="62"/>
       <c r="F60" s="41"/>
       <c r="G60" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="H60" s="66"/>
+      <c r="H60" s="62"/>
       <c r="I60" s="41"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="56" t="s">
         <v>16</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -21942,19 +23234,19 @@
       <c r="D61" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="66"/>
+      <c r="E61" s="62"/>
       <c r="F61" s="41"/>
       <c r="G61" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H61" s="66"/>
+      <c r="H61" s="62"/>
       <c r="I61" s="41"/>
     </row>
     <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="B62" s="61" t="s">
+      <c r="B62" s="57" t="s">
         <v>274</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -21963,12 +23255,12 @@
       <c r="D62" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="E62" s="70"/>
+      <c r="E62" s="66"/>
       <c r="F62" s="42"/>
       <c r="G62" s="37" t="s">
         <v>749</v>
       </c>
-      <c r="H62" s="70"/>
+      <c r="H62" s="66"/>
       <c r="I62" s="42"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -22024,10 +23316,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620B9BCF-8325-4009-BC05-5CB17AC6287D}">
-  <dimension ref="A1:K163"/>
+  <dimension ref="A1:K218"/>
   <sheetViews>
-    <sheetView topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="E90" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101:K108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22039,8 +23331,8 @@
     <col min="6" max="6" width="15.1796875" style="45" customWidth="1"/>
     <col min="7" max="7" width="13.6328125" style="4" customWidth="1"/>
     <col min="8" max="8" width="33.81640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="3"/>
+    <col min="9" max="10" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="73" thickBot="1" x14ac:dyDescent="0.4">
@@ -22634,14 +23926,14 @@
       <c r="C28" s="17" t="s">
         <v>583</v>
       </c>
-      <c r="D28" s="71">
+      <c r="D28" s="67">
         <f>(0.841873-0.793788)/0.793788</f>
         <v>6.0576627512635525E-2</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="F28" s="71">
+      <c r="F28" s="67">
         <f>(0.841639-0.793788)/0.793788</f>
         <v>6.0281838475764279E-2</v>
       </c>
@@ -22654,13 +23946,13 @@
       <c r="A30" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="46"/>
+      <c r="D30" s="74"/>
       <c r="E30" s="6" t="s">
         <v>175</v>
       </c>
@@ -22671,10 +23963,10 @@
         <v>111</v>
       </c>
       <c r="B31" s="16"/>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="47"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="7" t="s">
         <v>177</v>
       </c>
@@ -22687,10 +23979,10 @@
       <c r="B32" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="47"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="7" t="s">
         <v>85</v>
       </c>
@@ -22703,10 +23995,10 @@
       <c r="B33" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="47"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="7" t="s">
         <v>86</v>
       </c>
@@ -22719,10 +24011,10 @@
       <c r="B34" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="47"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="7" t="s">
         <v>87</v>
       </c>
@@ -22735,10 +24027,10 @@
       <c r="B35" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="47"/>
+      <c r="D35" s="75"/>
       <c r="E35" s="7" t="s">
         <v>88</v>
       </c>
@@ -22751,10 +24043,10 @@
       <c r="B36" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="47"/>
+      <c r="D36" s="75"/>
       <c r="E36" s="7" t="s">
         <v>89</v>
       </c>
@@ -22764,7 +24056,8 @@
       <c r="A37" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="47"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="75"/>
       <c r="F37" s="47"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -22774,10 +24067,10 @@
       <c r="B38" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="75">
         <f>(0.177608-0.170592)/0.170592</f>
         <v>4.1127368223597791E-2</v>
       </c>
@@ -22797,10 +24090,10 @@
       <c r="B39" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="47"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="7" t="s">
         <v>6</v>
       </c>
@@ -22813,10 +24106,10 @@
       <c r="B40" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="47"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="7" t="s">
         <v>7</v>
       </c>
@@ -22829,10 +24122,10 @@
       <c r="B41" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="47"/>
+      <c r="D41" s="75"/>
       <c r="E41" s="7" t="s">
         <v>54</v>
       </c>
@@ -22845,10 +24138,10 @@
       <c r="B42" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="47"/>
+      <c r="D42" s="75"/>
       <c r="E42" s="7" t="s">
         <v>9</v>
       </c>
@@ -22861,10 +24154,10 @@
       <c r="B43" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="47"/>
+      <c r="D43" s="75"/>
       <c r="E43" s="7" t="s">
         <v>55</v>
       </c>
@@ -22877,10 +24170,10 @@
       <c r="B44" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="47"/>
+      <c r="D44" s="75"/>
       <c r="E44" s="7" t="s">
         <v>56</v>
       </c>
@@ -22893,26 +24186,26 @@
       <c r="B45" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="47"/>
+      <c r="D45" s="75"/>
       <c r="E45" s="7" t="s">
         <v>57</v>
       </c>
       <c r="F45" s="47"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="47"/>
+      <c r="D46" s="75"/>
       <c r="E46" s="7" t="s">
         <v>91</v>
       </c>
@@ -22925,10 +24218,10 @@
       <c r="B47" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="D47" s="47">
+      <c r="D47" s="75">
         <f>(4419842.727851-4411063.13737)/4411063.13737</f>
         <v>1.9903570199710768E-3</v>
       </c>
@@ -22939,7 +24232,7 @@
         <f>(4359208.553543-4411063.13737)/4411063.13737</f>
         <v>-1.1755575064816977E-2</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="H47" s="6" t="s">
         <v>803</v>
       </c>
       <c r="I47" s="4">
@@ -22958,10 +24251,10 @@
       <c r="B48" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="D48" s="47">
+      <c r="D48" s="75">
         <f>(5.059133-5.06814)/5.06814</f>
         <v>-1.777180583014586E-3</v>
       </c>
@@ -22972,7 +24265,7 @@
         <f>(5.122823-5.06814)/5.06814</f>
         <v>1.0789559877982989E-2</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="H48" s="7" t="s">
         <v>802</v>
       </c>
       <c r="I48" s="4">
@@ -22991,10 +24284,10 @@
       <c r="B49" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="D49" s="47">
+      <c r="D49" s="75">
         <f>(0.481783-0.481679)/0.481679</f>
         <v>2.1591142648941095E-4</v>
       </c>
@@ -23005,7 +24298,7 @@
         <f>(0.481804-0.481679)/0.481679</f>
         <v>2.5950892606899247E-4</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="H49" s="7" t="s">
         <v>791</v>
       </c>
       <c r="I49" s="4">
@@ -23024,10 +24317,10 @@
       <c r="B50" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="D50" s="47">
+      <c r="D50" s="75">
         <f>(4.57735-4.586461)/4.586461</f>
         <v>-1.9864989585651922E-3</v>
       </c>
@@ -23038,7 +24331,7 @@
         <f>(4.641019-4.586461)/4.586461</f>
         <v>1.1895446183887775E-2</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H50" s="7" t="s">
         <v>804</v>
       </c>
       <c r="I50" s="4">
@@ -23054,7 +24347,8 @@
       <c r="A51" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D51" s="47"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="75"/>
       <c r="F51" s="47"/>
       <c r="H51" s="7" t="s">
         <v>805</v>
@@ -23072,7 +24366,8 @@
       <c r="A52" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D52" s="47"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="75"/>
       <c r="F52" s="47"/>
       <c r="H52" s="7" t="s">
         <v>802</v>
@@ -23090,7 +24385,8 @@
       <c r="A53" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D53" s="47"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="75"/>
       <c r="F53" s="47"/>
       <c r="H53" s="7" t="s">
         <v>791</v>
@@ -23108,7 +24404,8 @@
       <c r="A54" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D54" s="47"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="75"/>
       <c r="F54" s="47"/>
       <c r="H54" s="8" t="s">
         <v>806</v>
@@ -23126,7 +24423,8 @@
       <c r="A55" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D55" s="26"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="76"/>
       <c r="F55" s="26"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -23136,10 +24434,10 @@
       <c r="B56" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="47"/>
+      <c r="D56" s="75"/>
       <c r="E56" s="7" t="s">
         <v>96</v>
       </c>
@@ -23152,10 +24450,10 @@
       <c r="B57" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D57" s="47"/>
+      <c r="D57" s="75"/>
       <c r="E57" s="7" t="s">
         <v>97</v>
       </c>
@@ -23169,10 +24467,10 @@
       <c r="B58" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D58" s="47"/>
+      <c r="D58" s="75"/>
       <c r="E58" s="7" t="s">
         <v>98</v>
       </c>
@@ -23185,10 +24483,10 @@
       <c r="B59" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D59" s="47"/>
+      <c r="D59" s="75"/>
       <c r="E59" s="7" t="s">
         <v>99</v>
       </c>
@@ -23201,10 +24499,10 @@
       <c r="B60" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D60" s="47"/>
+      <c r="D60" s="75"/>
       <c r="E60" s="7" t="s">
         <v>178</v>
       </c>
@@ -23217,10 +24515,10 @@
       <c r="B61" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="D61" s="47"/>
+      <c r="D61" s="75"/>
       <c r="E61" s="7" t="s">
         <v>179</v>
       </c>
@@ -23233,10 +24531,10 @@
       <c r="B62" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="D62" s="47">
+      <c r="D62" s="75">
         <f>(20.164347-19.036023)/19.036023</f>
         <v>5.9273095015697302E-2</v>
       </c>
@@ -23255,10 +24553,10 @@
       <c r="B63" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="47"/>
+      <c r="D63" s="75"/>
       <c r="E63" s="7" t="s">
         <v>6</v>
       </c>
@@ -23271,10 +24569,10 @@
       <c r="B64" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="47"/>
+      <c r="D64" s="75"/>
       <c r="E64" s="7" t="s">
         <v>7</v>
       </c>
@@ -23287,10 +24585,10 @@
       <c r="B65" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D65" s="47"/>
+      <c r="D65" s="75"/>
       <c r="E65" s="7" t="s">
         <v>54</v>
       </c>
@@ -23303,10 +24601,10 @@
       <c r="B66" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="47"/>
+      <c r="D66" s="75"/>
       <c r="E66" s="7" t="s">
         <v>9</v>
       </c>
@@ -23319,10 +24617,10 @@
       <c r="B67" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D67" s="47"/>
+      <c r="D67" s="75"/>
       <c r="E67" s="7" t="s">
         <v>55</v>
       </c>
@@ -23335,10 +24633,10 @@
       <c r="B68" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D68" s="47"/>
+      <c r="D68" s="75"/>
       <c r="E68" s="7" t="s">
         <v>56</v>
       </c>
@@ -23351,10 +24649,10 @@
       <c r="B69" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="47"/>
+      <c r="D69" s="75"/>
       <c r="E69" s="7" t="s">
         <v>57</v>
       </c>
@@ -23367,10 +24665,10 @@
       <c r="B70" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D70" s="47"/>
+      <c r="D70" s="75"/>
       <c r="E70" s="7" t="s">
         <v>103</v>
       </c>
@@ -23383,10 +24681,10 @@
       <c r="B71" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D71" s="47"/>
+      <c r="D71" s="75"/>
       <c r="E71" s="7" t="s">
         <v>104</v>
       </c>
@@ -23399,10 +24697,10 @@
       <c r="B72" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D72" s="47"/>
+      <c r="D72" s="75"/>
       <c r="E72" s="7" t="s">
         <v>105</v>
       </c>
@@ -23415,10 +24713,10 @@
       <c r="B73" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="D73" s="26">
+      <c r="D73" s="76">
         <f>(5424983.706168-5409510.659765)/5409510.659765</f>
         <v>2.8603412353145042E-3</v>
       </c>
@@ -23437,10 +24735,10 @@
       <c r="B74" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="D74" s="26">
+      <c r="D74" s="76">
         <f>(0.195667-0.19622)/0.19622</f>
         <v>-2.8182652125165525E-3</v>
       </c>
@@ -23459,10 +24757,10 @@
       <c r="B75" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="D75" s="26">
+      <c r="D75" s="76">
         <f>(0.002381-0.002381)/0.002381</f>
         <v>0</v>
       </c>
@@ -23481,10 +24779,10 @@
       <c r="B76" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="D76" s="26">
+      <c r="D76" s="76">
         <f>(0.193286-0.193839)/0.193839</f>
         <v>-2.8528830627479397E-3</v>
       </c>
@@ -23501,14 +24799,16 @@
       <c r="A77" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D77" s="47"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="75"/>
       <c r="F77" s="47"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D78" s="47"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="75"/>
       <c r="F78" s="47"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -23516,8 +24816,8 @@
         <v>136</v>
       </c>
       <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="47"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="75"/>
       <c r="E79" s="7"/>
       <c r="F79" s="47"/>
     </row>
@@ -23528,735 +24828,1591 @@
       <c r="B80" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="47"/>
+      <c r="D80" s="75"/>
       <c r="E80" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F80" s="47"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="D81" s="47"/>
+      <c r="D81" s="75"/>
       <c r="E81" s="7" t="s">
         <v>768</v>
       </c>
       <c r="F81" s="47"/>
     </row>
-    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="8" t="s">
         <v>138</v>
       </c>
       <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="48"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="77"/>
       <c r="E82" s="8"/>
       <c r="F82" s="48"/>
     </row>
-    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="38"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="49"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B84" s="78" t="s">
+        <v>814</v>
+      </c>
+      <c r="C84" s="78" t="s">
+        <v>814</v>
+      </c>
+      <c r="D84" s="46"/>
+      <c r="E84" s="78" t="s">
+        <v>814</v>
+      </c>
+      <c r="F84" s="46"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="D85" s="47"/>
+      <c r="E85" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="F85" s="47"/>
+    </row>
+    <row r="86" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="D86" s="47"/>
+      <c r="E86" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="F86" s="47"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" s="47"/>
+      <c r="E87" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F87" s="47"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" s="47"/>
+      <c r="E88" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F88" s="47"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D89" s="47"/>
+      <c r="E89" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F89" s="47"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" s="47"/>
+      <c r="E90" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F90" s="47"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D91" s="47"/>
+      <c r="E91" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F91" s="47"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="D92" s="47"/>
+      <c r="E92" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="F92" s="47"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="47"/>
+      <c r="E93" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" s="47"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="47"/>
+      <c r="E94" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="47"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95" s="47"/>
+      <c r="E95" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F95" s="47"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="47"/>
+      <c r="E96" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="47"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" s="47"/>
+      <c r="E97" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F97" s="47"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" s="47"/>
+      <c r="E98" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F98" s="47"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99" s="47"/>
+      <c r="E99" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F99" s="47"/>
+    </row>
+    <row r="100" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D100" s="47"/>
+      <c r="E100" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" s="47"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="D101" s="75">
+        <f>(4411753.022732-4410573.007165)/4410573.007165</f>
+        <v>2.6754246332235797E-4</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="F101" s="75">
+        <f>(4345655.991761-4410573.007165)/4410573.007165</f>
+        <v>-1.471849922868115E-2</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="I101" s="4">
+        <f>ABS(D101)</f>
+        <v>2.6754246332235797E-4</v>
+      </c>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4">
+        <f>ABS(F101)</f>
+        <v>1.471849922868115E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="D102" s="75">
+        <f>(5.067529-5.068654)/5.068654</f>
+        <v>-2.2195241576955985E-4</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="F102" s="75">
+        <f>(5.137299-5.068654)/5.068654</f>
+        <v>1.3543043182667266E-2</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="I102" s="4">
+        <f t="shared" ref="I102:K104" si="4">ABS(D102)</f>
+        <v>2.2195241576955985E-4</v>
+      </c>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4">
+        <f t="shared" si="4"/>
+        <v>1.3543043182667266E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="D103" s="75">
+        <f>(0.481785-0.481683)/0.481683</f>
+        <v>2.1175752517744347E-4</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="F103" s="75">
+        <f>(0.481806-0.481683)/0.481683</f>
+        <v>2.5535466271394205E-4</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="I103" s="4">
+        <f t="shared" si="4"/>
+        <v>2.1175752517744347E-4</v>
+      </c>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5535466271394205E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="D104" s="75">
+        <f>(4.585744-4.586971)/4.586971</f>
+        <v>-2.6749678600542474E-4</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="F104" s="75">
+        <f>(4.655493-4.586971)/4.586971</f>
+        <v>1.4938398346098057E-2</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="I104" s="4">
+        <f t="shared" si="4"/>
+        <v>2.6749678600542474E-4</v>
+      </c>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4">
+        <f t="shared" si="4"/>
+        <v>1.4938398346098057E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D105" s="47"/>
+      <c r="E105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F105" s="47"/>
+      <c r="H105" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="I105" s="4">
+        <f>ABS(D122)</f>
+        <v>7.1697750866193117E-5</v>
+      </c>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4">
+        <f>ABS(F122)</f>
+        <v>1.0391174208514336E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D106" s="47"/>
+      <c r="E106" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F106" s="47"/>
+      <c r="H106" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="I106" s="4">
+        <f t="shared" ref="I106:K108" si="5">ABS(D123)</f>
+        <v>6.1186716363797078E-5</v>
+      </c>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0376247316707589E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D107" s="47"/>
+      <c r="E107" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F107" s="47"/>
+      <c r="H107" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="I107" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2615643397813139E-3</v>
+      </c>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4">
+        <f t="shared" si="5"/>
+        <v>8.410428931876642E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D108" s="47"/>
+      <c r="E108" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F108" s="47"/>
+      <c r="H108" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="I108" s="4">
+        <f t="shared" si="5"/>
+        <v>7.2261048198048151E-5</v>
+      </c>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0503659505940937E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D109" s="47"/>
+      <c r="E109" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F109" s="47"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D110" s="47"/>
+      <c r="E110" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F110" s="47"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="D111" s="75">
+        <f>(20.238777-19.03653)/19.03653</f>
+        <v>6.315473460762018E-2</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="F111" s="75">
+        <f>(20.242415-19.03653)/19.03653</f>
+        <v>6.3345840864905634E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="47"/>
+      <c r="E112" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" s="47"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="47"/>
+      <c r="E113" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="47"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D114" s="47"/>
+      <c r="E114" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F114" s="47"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="47"/>
+      <c r="E115" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="47"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D116" s="47"/>
+      <c r="E116" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F116" s="47"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D117" s="47"/>
+      <c r="E117" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F117" s="47"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D118" s="47"/>
+      <c r="E118" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F118" s="47"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D119" s="47"/>
+      <c r="E119" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F119" s="47"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D120" s="47"/>
+      <c r="E120" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F120" s="47"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D121" s="47"/>
+      <c r="E121" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F121" s="47"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="D122" s="76">
+        <f>(5412609.18507-5412221.140987)/5412221.140987</f>
+        <v>7.1697750866193117E-5</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="F122" s="76">
+        <f>(5355981.808256-5412221.140987)/5412221.140987</f>
+        <v>-1.0391174208514336E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="7"/>
+      <c r="B123" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="D123" s="76">
+        <f>(0.196109-0.196121)/0.196121</f>
+        <v>-6.1186716363797078E-5</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="F123" s="76">
+        <f>(0.198156-0.196121)/0.196121</f>
+        <v>1.0376247316707589E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D124" s="76">
+        <f>(0.002381-0.002378)/0.002378</f>
+        <v>1.2615643397813139E-3</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F124" s="76">
+        <f>(0.00238-0.002378)/0.002378</f>
+        <v>8.410428931876642E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="7"/>
+      <c r="B125" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D125" s="76">
+        <f>(0.193728-0.193742)/0.193742</f>
+        <v>-7.2261048198048151E-5</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="F125" s="76">
+        <f>(0.195777-0.193742)/0.193742</f>
+        <v>1.0503659505940937E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="7"/>
+      <c r="B126" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="47"/>
+      <c r="E126" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" s="47"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="7"/>
+      <c r="B127" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="D127" s="47"/>
+      <c r="E127" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="F127" s="47"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="47"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="47"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="47"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="47"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="7"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="47"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="47"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="47"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="47"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="47"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="47"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="47"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="47"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="47"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="47"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="7"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="47"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="47"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="7"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="47"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="47"/>
+    </row>
+    <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="48"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="48"/>
+    </row>
+    <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B139" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C139" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E139" s="6" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A85" s="7" t="s">
+    <row r="140" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A140" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="25"/>
-      <c r="E85" s="7"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="7" t="s">
+      <c r="B140" s="7"/>
+      <c r="C140" s="25"/>
+      <c r="E140" s="7"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B141" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="25"/>
-      <c r="E86" s="7"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="7" t="s">
+      <c r="C141" s="25"/>
+      <c r="E141" s="7"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B142" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="C87" s="7"/>
-      <c r="E87" s="7"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="E88" s="7"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="E89" s="7"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C90" s="7"/>
-      <c r="E90" s="7"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="E91" s="7"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C92" s="7"/>
-      <c r="E92" s="7"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="C93" s="7"/>
-      <c r="E93" s="7"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="C94" s="7"/>
-      <c r="E94" s="7"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="C96" s="7"/>
-      <c r="E96" s="7"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C97" s="7"/>
-      <c r="E97" s="7"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C98" s="7"/>
-      <c r="E98" s="7"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C99" s="7"/>
-      <c r="E99" s="7"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C100" s="7"/>
-      <c r="E100" s="7"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C101" s="7"/>
-      <c r="E101" s="7"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="E102" s="7"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C103" s="7"/>
-      <c r="E103" s="7"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C104" s="7"/>
-      <c r="E104" s="7"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C105" s="7"/>
-      <c r="E105" s="7"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C106" s="7"/>
-      <c r="E106" s="7"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="C107" s="7"/>
-      <c r="E107" s="7"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="C108" s="7"/>
-      <c r="E108" s="7"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="C109" s="7"/>
-      <c r="E109" s="7"/>
-    </row>
-    <row r="110" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="C110" s="8"/>
-      <c r="E110" s="8"/>
-    </row>
-    <row r="111" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="C113" s="7"/>
-      <c r="E113" s="7"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C114" s="7"/>
-      <c r="E114" s="7"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C115" s="7"/>
-      <c r="E115" s="7"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C116" s="7"/>
-      <c r="E116" s="7"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C117" s="7"/>
-      <c r="E117" s="7"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C118" s="7"/>
-      <c r="E118" s="7"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="C119" s="7"/>
-      <c r="E119" s="7"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C120" s="7"/>
-      <c r="E120" s="7"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C121" s="7"/>
-      <c r="E121" s="7"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C122" s="7"/>
-      <c r="E122" s="7"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C123" s="7"/>
-      <c r="E123" s="7"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C124" s="7"/>
-      <c r="E124" s="7"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C125" s="7"/>
-      <c r="E125" s="7"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="C126" s="7"/>
-      <c r="E126" s="7"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="C127" s="7"/>
-      <c r="E127" s="7"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="C128" s="7"/>
-      <c r="E128" s="7"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="C129" s="7"/>
-      <c r="E129" s="7"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A130" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C130" s="7"/>
-      <c r="E130" s="7"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C131" s="7"/>
-      <c r="E131" s="7"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C132" s="7"/>
-      <c r="E132" s="7"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C133" s="7"/>
-      <c r="E133" s="7"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C134" s="7"/>
-      <c r="E134" s="7"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C135" s="7"/>
-      <c r="E135" s="7"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C136" s="7"/>
-      <c r="E136" s="7"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C137" s="7"/>
-      <c r="E137" s="7"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" s="7"/>
-      <c r="C138" s="7"/>
-      <c r="E138" s="7"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C139" s="7"/>
-      <c r="E139" s="7"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C140" s="7"/>
-      <c r="E140" s="7"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C141" s="7"/>
-      <c r="E141" s="7"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A142" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="C142" s="7"/>
       <c r="E142" s="7"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>492</v>
+        <v>87</v>
       </c>
       <c r="C143" s="7"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C144" s="7"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C145" s="7"/>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>105</v>
+        <v>477</v>
       </c>
       <c r="C146" s="7"/>
       <c r="E146" s="7"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>493</v>
+        <v>91</v>
       </c>
       <c r="C147" s="7"/>
       <c r="E147" s="7"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="C148" s="7"/>
       <c r="E148" s="7"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>108</v>
+        <v>479</v>
       </c>
       <c r="C149" s="7"/>
       <c r="E149" s="7"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C150" s="7"/>
+      <c r="D150" s="5"/>
       <c r="E150" s="7"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B151" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>481</v>
+      </c>
       <c r="C151" s="7"/>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B152" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="C152" s="7"/>
       <c r="E152" s="7"/>
     </row>
-    <row r="153" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="8" t="s">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C153" s="7"/>
+      <c r="E153" s="7"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C154" s="7"/>
+      <c r="E154" s="7"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="E155" s="7"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C156" s="7"/>
+      <c r="E156" s="7"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C157" s="7"/>
+      <c r="E157" s="7"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C158" s="7"/>
+      <c r="E158" s="7"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C159" s="7"/>
+      <c r="E159" s="7"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C160" s="7"/>
+      <c r="E160" s="7"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C161" s="7"/>
+      <c r="E161" s="7"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C162" s="7"/>
+      <c r="E162" s="7"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C163" s="7"/>
+      <c r="E163" s="7"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C164" s="7"/>
+      <c r="E164" s="7"/>
+    </row>
+    <row r="165" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A165" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C165" s="8"/>
+      <c r="E165" s="8"/>
+    </row>
+    <row r="166" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A168" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C168" s="7"/>
+      <c r="E168" s="7"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C169" s="7"/>
+      <c r="E169" s="7"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C170" s="7"/>
+      <c r="E170" s="7"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C171" s="7"/>
+      <c r="E171" s="7"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C172" s="7"/>
+      <c r="E172" s="7"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C173" s="7"/>
+      <c r="E173" s="7"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C174" s="7"/>
+      <c r="E174" s="7"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C175" s="7"/>
+      <c r="E175" s="7"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C176" s="7"/>
+      <c r="E176" s="7"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C177" s="7"/>
+      <c r="E177" s="7"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C178" s="7"/>
+      <c r="E178" s="7"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C179" s="7"/>
+      <c r="E179" s="7"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C180" s="7"/>
+      <c r="E180" s="7"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C181" s="7"/>
+      <c r="E181" s="7"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C182" s="7"/>
+      <c r="E182" s="7"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="C183" s="7"/>
+      <c r="E183" s="7"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C184" s="7"/>
+      <c r="E184" s="7"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C185" s="7"/>
+      <c r="E185" s="7"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C186" s="7"/>
+      <c r="E186" s="7"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C187" s="7"/>
+      <c r="E187" s="7"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C188" s="7"/>
+      <c r="E188" s="7"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C189" s="7"/>
+      <c r="E189" s="7"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C190" s="7"/>
+      <c r="E190" s="7"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C191" s="7"/>
+      <c r="E191" s="7"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C192" s="7"/>
+      <c r="E192" s="7"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" s="7"/>
+      <c r="C193" s="7"/>
+      <c r="E193" s="7"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C194" s="7"/>
+      <c r="E194" s="7"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C195" s="7"/>
+      <c r="E195" s="7"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C196" s="7"/>
+      <c r="E196" s="7"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C197" s="7"/>
+      <c r="E197" s="7"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C198" s="7"/>
+      <c r="E198" s="7"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C199" s="7"/>
+      <c r="E199" s="7"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C200" s="7"/>
+      <c r="E200" s="7"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C201" s="7"/>
+      <c r="E201" s="7"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C202" s="7"/>
+      <c r="E202" s="7"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C203" s="7"/>
+      <c r="E203" s="7"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C204" s="7"/>
+      <c r="E204" s="7"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C205" s="7"/>
+      <c r="E205" s="7"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B206" s="7"/>
+      <c r="C206" s="7"/>
+      <c r="E206" s="7"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A207" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B207" s="7"/>
+      <c r="C207" s="7"/>
+      <c r="E207" s="7"/>
+    </row>
+    <row r="208" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A208" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="E153" s="8"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C155" s="3" t="s">
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+      <c r="E208" s="8"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C210" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C156" s="3" t="s">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C211" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C157" s="3" t="s">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C212" s="3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C158" s="3" t="s">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C213" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C160" s="3" t="s">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C215" s="3" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C161" s="3" t="s">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C216" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C162" s="3" t="s">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C217" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C163" s="3" t="s">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C218" s="3" t="s">
         <v>408</v>
       </c>
     </row>
@@ -24271,7 +26427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414E3830-8474-43B5-80DD-A953F1321F04}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView topLeftCell="E106" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
@@ -25530,26 +27686,26 @@
       <c r="C90" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="D90" s="72"/>
-      <c r="F90" s="72"/>
+      <c r="D90" s="68"/>
+      <c r="F90" s="68"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D91" s="72"/>
-      <c r="F91" s="72"/>
+      <c r="D91" s="68"/>
+      <c r="F91" s="68"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C92" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="D92" s="72"/>
-      <c r="F92" s="72"/>
+      <c r="D92" s="68"/>
+      <c r="F92" s="68"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C93" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="D93" s="72"/>
-      <c r="F93" s="72"/>
+      <c r="D93" s="68"/>
+      <c r="F93" s="68"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C94" s="3" t="s">
@@ -25652,7 +27808,7 @@
         <v>229</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="69" t="s">
         <v>229</v>
       </c>
       <c r="F4" s="18"/>
@@ -27203,13 +29359,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="53"/>
+      <c r="A1" s="72"/>
       <c r="B1" s="19"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="54"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="20"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -27383,13 +29539,13 @@
       <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="53"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="19"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="54"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="20"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>

--- a/misc/results/zup/ZCU102_ADV_vs_SideWinder_Master.xlsx
+++ b/misc/results/zup/ZCU102_ADV_vs_SideWinder_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macaraeg1\Projects\comp\repositories\lime-apps\misc\results\zup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF43073A-2C2F-43D7-8AA3-EC7AA46A4224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16F0245-ED18-458D-B617-C9591C228C68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="2330" windowWidth="29930" windowHeight="15460" tabRatio="633" activeTab="4" xr2:uid="{882556CE-AD92-400A-846D-D6BC51444929}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="633" activeTab="5" xr2:uid="{882556CE-AD92-400A-846D-D6BC51444929}"/>
   </bookViews>
   <sheets>
     <sheet name="zup - image (stock2.txt)" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="877">
   <si>
     <t># make D=CLOCKS,STATS RUN_ARGS="-d&lt;int&gt; -v15 -w24000 -h16000 pat pat"</t>
   </si>
@@ -2595,6 +2595,96 @@
   </si>
   <si>
     <t>CPU 72 1809227 4608 115790528 0</t>
+  </si>
+  <si>
+    <t>aarch64-none-elf-g++ -std=c++11  -O3 -Wall -MMD -DSTATS -DCLOCKS -DUSE_HASH -DZYNQ=_ZU_ -DXILTIME -DUSE_MARGS -DMARGS='"-e32Mi -l.60 -c -w1Mi -h.90 -z.99"' -I../src -Ic:/users/macaraeg1/projects/comp/repositories/lime_master_187.5MHz/shared -Ic:/users/macaraeg1/projects/comp/repositories/lime_master_187.5MHz/shared/standalone -Ic:/users/macaraeg1/projects/comp/repositories/lime_master_187.5MHz/standalone/sdk/standalone_bsp_a53/psu_cortexa53_0/include  -c -o rtb.o ../src/rtb.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> make build=zup D=CLOCKS,STATS,USE_HASH,USE_OCM,OFFLOAD RUN_ARGS="-e32Mi -l.60 -c -w1Mi -h.90 -z.99"</t>
+  </si>
+  <si>
+    <t>aarch64-none-elf-g++ -std=c++11  -O3 -Wall -MMD -DCLOCKS -DSTATS -DUSE_HASH -DUSE_OCM -DOFFLOAD -DUSE_HASH -DZYNQ=_ZU_ -DXILTIME -DUSE_MARGS -DMARGS='"-e32Mi -l.60 -c -w1Mi -h.90 -z.99"' -DUSE_SP -DUSE_OCM -I../src -Ic:/users/macaraeg1/projects/comp/repositories/lime_master_187.5MHz/shared -Ic:/users/macaraeg1/projects/comp/repositories/lime_master_187.5MHz/shared/standalone -Ic:/users/macaraeg1/projects/comp/repositories/lime_master_187.5MHz/standalone/sdk/standalone_bsp_a53/psu_cortexa53_0/include  -c -o rtb.o ../src/rtb.cpp</t>
+  </si>
+  <si>
+    <t>Startup time: 0.721174 sec</t>
+  </si>
+  <si>
+    <t>Insert  rate: 6352573.126293 ops/sec</t>
+  </si>
+  <si>
+    <t>Run     time: 3.737612 sec</t>
+  </si>
+  <si>
+    <t>Oper.   time: 0.567883 sec</t>
+  </si>
+  <si>
+    <t>Insert  time: 3.169729 sec</t>
+  </si>
+  <si>
+    <t>Stats   time: 0.011326 sec</t>
+  </si>
+  <si>
+    <t>Lookup  rate: 30080509.605687 ops/sec</t>
+  </si>
+  <si>
+    <t>Run     time: 0.037343 sec</t>
+  </si>
+  <si>
+    <t>Oper.   time: 0.002484 sec</t>
+  </si>
+  <si>
+    <t>Lookup  time: 0.034859 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Fill  time: 0.030896 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cache time: 0.003909 sec</t>
+  </si>
+  <si>
+    <t>CPU 11 65585 704 4197568 0</t>
+  </si>
+  <si>
+    <t>make build=zup D=CLOCKS,STATS,USE_HASH,USE_OCM,OFFLOAD,VAR_DELAY=_GDT_ RUN_ARGS="-e32Mi -l.60 -c -w1Mi -h.90 -z.99"</t>
+  </si>
+  <si>
+    <t>aarch64-none-elf-g++ -std=c++11  -O3 -Wall -MMD -DCLOCKS -DSTATS -DUSE_HASH -DUSE_OCM -DOFFLOAD -DVAR_DELAY=_GDT_ -DUSE_HASH -DZYNQ=_ZU_ -DXILTIME -DUSE_MARGS -DMARGS='"-e32Mi -l.60 -c -w1Mi -h.90 -z.99"' -DUSE_SP -DUSE_OCM -I../src -Ic:/users/macaraeg1/projects/comp/repositories/lime_axi_delayv/shared -Ic:/users/macaraeg1/projects/comp/repositories/lime_axi_delayv/shared/standalone -Ic:/users/macaraeg1/projects/comp/repositories/lime_axi_delayv/standalone/sdk/standalone_bsp_a53/psu_cortexa53_0/include  -c -o rtb.o ../src/rtb.cpp</t>
+  </si>
+  <si>
+    <t>Startup time: 0.738153 sec</t>
+  </si>
+  <si>
+    <t>Insert  rate: 6350996.227181 ops/sec</t>
+  </si>
+  <si>
+    <t>Run     time: 3.738403 sec</t>
+  </si>
+  <si>
+    <t>Oper.   time: 0.567887 sec</t>
+  </si>
+  <si>
+    <t>Insert  time: 3.170516 sec</t>
+  </si>
+  <si>
+    <t>table addr: 0x1000255600</t>
+  </si>
+  <si>
+    <t>heap start:0x1000255080 top:0x1020259000 end:0x10ff255080</t>
+  </si>
+  <si>
+    <t>Insert  rate: 6285505.157571 ops/sec</t>
+  </si>
+  <si>
+    <t>Run     time: 3.771458 sec</t>
+  </si>
+  <si>
+    <t>Oper.   time: 0.567907 sec</t>
+  </si>
+  <si>
+    <t>Insert  time: 3.203551 sec</t>
+  </si>
+  <si>
+    <t>Run 2020-1016</t>
   </si>
 </sst>
 </file>
@@ -2943,7 +3033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3132,10 +3222,22 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3150,19 +3252,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -21819,17 +21912,17 @@
       <c r="D1" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="74" t="s">
         <v>672</v>
       </c>
-      <c r="F1" s="71"/>
+      <c r="F1" s="75"/>
       <c r="G1" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="74" t="s">
         <v>672</v>
       </c>
-      <c r="I1" s="71"/>
+      <c r="I1" s="75"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E2" s="44"/>
@@ -23318,8 +23411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620B9BCF-8325-4009-BC05-5CB17AC6287D}">
   <dimension ref="A1:K218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E90" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101:K108"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23952,7 +24045,7 @@
       <c r="C30" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="74"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="6" t="s">
         <v>175</v>
       </c>
@@ -23962,11 +24055,13 @@
       <c r="A31" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="16" t="s">
+        <v>847</v>
+      </c>
       <c r="C31" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="75"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="7" t="s">
         <v>177</v>
       </c>
@@ -23982,7 +24077,7 @@
       <c r="C32" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="75"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="7" t="s">
         <v>85</v>
       </c>
@@ -23998,7 +24093,7 @@
       <c r="C33" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="75"/>
+      <c r="D33" s="70"/>
       <c r="E33" s="7" t="s">
         <v>86</v>
       </c>
@@ -24014,7 +24109,7 @@
       <c r="C34" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="75"/>
+      <c r="D34" s="70"/>
       <c r="E34" s="7" t="s">
         <v>87</v>
       </c>
@@ -24030,7 +24125,7 @@
       <c r="C35" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="75"/>
+      <c r="D35" s="70"/>
       <c r="E35" s="7" t="s">
         <v>88</v>
       </c>
@@ -24046,7 +24141,7 @@
       <c r="C36" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="75"/>
+      <c r="D36" s="70"/>
       <c r="E36" s="7" t="s">
         <v>89</v>
       </c>
@@ -24057,7 +24152,7 @@
         <v>112</v>
       </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="75"/>
+      <c r="D37" s="70"/>
       <c r="F37" s="47"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -24070,7 +24165,7 @@
       <c r="C38" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="D38" s="75">
+      <c r="D38" s="70">
         <f>(0.177608-0.170592)/0.170592</f>
         <v>4.1127368223597791E-2</v>
       </c>
@@ -24093,7 +24188,7 @@
       <c r="C39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="75"/>
+      <c r="D39" s="70"/>
       <c r="E39" s="7" t="s">
         <v>6</v>
       </c>
@@ -24109,7 +24204,7 @@
       <c r="C40" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="75"/>
+      <c r="D40" s="70"/>
       <c r="E40" s="7" t="s">
         <v>7</v>
       </c>
@@ -24125,7 +24220,7 @@
       <c r="C41" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="75"/>
+      <c r="D41" s="70"/>
       <c r="E41" s="7" t="s">
         <v>54</v>
       </c>
@@ -24141,7 +24236,7 @@
       <c r="C42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="75"/>
+      <c r="D42" s="70"/>
       <c r="E42" s="7" t="s">
         <v>9</v>
       </c>
@@ -24157,7 +24252,7 @@
       <c r="C43" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="75"/>
+      <c r="D43" s="70"/>
       <c r="E43" s="7" t="s">
         <v>55</v>
       </c>
@@ -24173,7 +24268,7 @@
       <c r="C44" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="75"/>
+      <c r="D44" s="70"/>
       <c r="E44" s="7" t="s">
         <v>56</v>
       </c>
@@ -24189,7 +24284,7 @@
       <c r="C45" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="75"/>
+      <c r="D45" s="70"/>
       <c r="E45" s="7" t="s">
         <v>57</v>
       </c>
@@ -24205,7 +24300,7 @@
       <c r="C46" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="75"/>
+      <c r="D46" s="70"/>
       <c r="E46" s="7" t="s">
         <v>91</v>
       </c>
@@ -24221,7 +24316,7 @@
       <c r="C47" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="D47" s="75">
+      <c r="D47" s="70">
         <f>(4419842.727851-4411063.13737)/4411063.13737</f>
         <v>1.9903570199710768E-3</v>
       </c>
@@ -24254,7 +24349,7 @@
       <c r="C48" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="D48" s="75">
+      <c r="D48" s="70">
         <f>(5.059133-5.06814)/5.06814</f>
         <v>-1.777180583014586E-3</v>
       </c>
@@ -24287,7 +24382,7 @@
       <c r="C49" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="D49" s="75">
+      <c r="D49" s="70">
         <f>(0.481783-0.481679)/0.481679</f>
         <v>2.1591142648941095E-4</v>
       </c>
@@ -24320,7 +24415,7 @@
       <c r="C50" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="D50" s="75">
+      <c r="D50" s="70">
         <f>(4.57735-4.586461)/4.586461</f>
         <v>-1.9864989585651922E-3</v>
       </c>
@@ -24348,7 +24443,7 @@
         <v>119</v>
       </c>
       <c r="C51" s="12"/>
-      <c r="D51" s="75"/>
+      <c r="D51" s="70"/>
       <c r="F51" s="47"/>
       <c r="H51" s="7" t="s">
         <v>805</v>
@@ -24367,7 +24462,7 @@
         <v>120</v>
       </c>
       <c r="C52" s="12"/>
-      <c r="D52" s="75"/>
+      <c r="D52" s="70"/>
       <c r="F52" s="47"/>
       <c r="H52" s="7" t="s">
         <v>802</v>
@@ -24386,7 +24481,7 @@
         <v>121</v>
       </c>
       <c r="C53" s="12"/>
-      <c r="D53" s="75"/>
+      <c r="D53" s="70"/>
       <c r="F53" s="47"/>
       <c r="H53" s="7" t="s">
         <v>791</v>
@@ -24405,7 +24500,7 @@
         <v>122</v>
       </c>
       <c r="C54" s="12"/>
-      <c r="D54" s="75"/>
+      <c r="D54" s="70"/>
       <c r="F54" s="47"/>
       <c r="H54" s="8" t="s">
         <v>806</v>
@@ -24424,7 +24519,7 @@
         <v>123</v>
       </c>
       <c r="C55" s="12"/>
-      <c r="D55" s="76"/>
+      <c r="D55" s="71"/>
       <c r="F55" s="26"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -24437,7 +24532,7 @@
       <c r="C56" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="75"/>
+      <c r="D56" s="70"/>
       <c r="E56" s="7" t="s">
         <v>96</v>
       </c>
@@ -24453,7 +24548,7 @@
       <c r="C57" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D57" s="75"/>
+      <c r="D57" s="70"/>
       <c r="E57" s="7" t="s">
         <v>97</v>
       </c>
@@ -24470,7 +24565,7 @@
       <c r="C58" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D58" s="75"/>
+      <c r="D58" s="70"/>
       <c r="E58" s="7" t="s">
         <v>98</v>
       </c>
@@ -24486,7 +24581,7 @@
       <c r="C59" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D59" s="75"/>
+      <c r="D59" s="70"/>
       <c r="E59" s="7" t="s">
         <v>99</v>
       </c>
@@ -24502,7 +24597,7 @@
       <c r="C60" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D60" s="75"/>
+      <c r="D60" s="70"/>
       <c r="E60" s="7" t="s">
         <v>178</v>
       </c>
@@ -24518,7 +24613,7 @@
       <c r="C61" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="D61" s="75"/>
+      <c r="D61" s="70"/>
       <c r="E61" s="7" t="s">
         <v>179</v>
       </c>
@@ -24534,7 +24629,7 @@
       <c r="C62" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="D62" s="75">
+      <c r="D62" s="70">
         <f>(20.164347-19.036023)/19.036023</f>
         <v>5.9273095015697302E-2</v>
       </c>
@@ -24556,7 +24651,7 @@
       <c r="C63" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="75"/>
+      <c r="D63" s="70"/>
       <c r="E63" s="7" t="s">
         <v>6</v>
       </c>
@@ -24572,7 +24667,7 @@
       <c r="C64" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="75"/>
+      <c r="D64" s="70"/>
       <c r="E64" s="7" t="s">
         <v>7</v>
       </c>
@@ -24588,7 +24683,7 @@
       <c r="C65" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D65" s="75"/>
+      <c r="D65" s="70"/>
       <c r="E65" s="7" t="s">
         <v>54</v>
       </c>
@@ -24604,7 +24699,7 @@
       <c r="C66" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="75"/>
+      <c r="D66" s="70"/>
       <c r="E66" s="7" t="s">
         <v>9</v>
       </c>
@@ -24620,7 +24715,7 @@
       <c r="C67" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D67" s="75"/>
+      <c r="D67" s="70"/>
       <c r="E67" s="7" t="s">
         <v>55</v>
       </c>
@@ -24636,7 +24731,7 @@
       <c r="C68" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D68" s="75"/>
+      <c r="D68" s="70"/>
       <c r="E68" s="7" t="s">
         <v>56</v>
       </c>
@@ -24652,7 +24747,7 @@
       <c r="C69" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="75"/>
+      <c r="D69" s="70"/>
       <c r="E69" s="7" t="s">
         <v>57</v>
       </c>
@@ -24668,7 +24763,7 @@
       <c r="C70" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D70" s="75"/>
+      <c r="D70" s="70"/>
       <c r="E70" s="7" t="s">
         <v>103</v>
       </c>
@@ -24684,7 +24779,7 @@
       <c r="C71" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D71" s="75"/>
+      <c r="D71" s="70"/>
       <c r="E71" s="7" t="s">
         <v>104</v>
       </c>
@@ -24700,7 +24795,7 @@
       <c r="C72" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D72" s="75"/>
+      <c r="D72" s="70"/>
       <c r="E72" s="7" t="s">
         <v>105</v>
       </c>
@@ -24716,7 +24811,7 @@
       <c r="C73" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="D73" s="76">
+      <c r="D73" s="71">
         <f>(5424983.706168-5409510.659765)/5409510.659765</f>
         <v>2.8603412353145042E-3</v>
       </c>
@@ -24738,7 +24833,7 @@
       <c r="C74" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="D74" s="76">
+      <c r="D74" s="71">
         <f>(0.195667-0.19622)/0.19622</f>
         <v>-2.8182652125165525E-3</v>
       </c>
@@ -24760,7 +24855,7 @@
       <c r="C75" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="D75" s="76">
+      <c r="D75" s="71">
         <f>(0.002381-0.002381)/0.002381</f>
         <v>0</v>
       </c>
@@ -24782,7 +24877,7 @@
       <c r="C76" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="D76" s="76">
+      <c r="D76" s="71">
         <f>(0.193286-0.193839)/0.193839</f>
         <v>-2.8528830627479397E-3</v>
       </c>
@@ -24800,7 +24895,7 @@
         <v>135</v>
       </c>
       <c r="C77" s="12"/>
-      <c r="D77" s="75"/>
+      <c r="D77" s="70"/>
       <c r="F77" s="47"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -24808,7 +24903,7 @@
         <v>120</v>
       </c>
       <c r="C78" s="12"/>
-      <c r="D78" s="75"/>
+      <c r="D78" s="70"/>
       <c r="F78" s="47"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -24817,7 +24912,7 @@
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="12"/>
-      <c r="D79" s="75"/>
+      <c r="D79" s="70"/>
       <c r="E79" s="7"/>
       <c r="F79" s="47"/>
     </row>
@@ -24831,7 +24926,7 @@
       <c r="C80" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="75"/>
+      <c r="D80" s="70"/>
       <c r="E80" s="7" t="s">
         <v>16</v>
       </c>
@@ -24847,7 +24942,7 @@
       <c r="C81" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="D81" s="75"/>
+      <c r="D81" s="70"/>
       <c r="E81" s="7" t="s">
         <v>768</v>
       </c>
@@ -24859,7 +24954,7 @@
       </c>
       <c r="B82" s="17"/>
       <c r="C82" s="13"/>
-      <c r="D82" s="77"/>
+      <c r="D82" s="72"/>
       <c r="E82" s="8"/>
       <c r="F82" s="48"/>
     </row>
@@ -24875,14 +24970,14 @@
       <c r="A84" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B84" s="78" t="s">
+      <c r="B84" s="73" t="s">
         <v>814</v>
       </c>
-      <c r="C84" s="78" t="s">
+      <c r="C84" s="73" t="s">
         <v>814</v>
       </c>
       <c r="D84" s="46"/>
-      <c r="E84" s="78" t="s">
+      <c r="E84" s="73" t="s">
         <v>814</v>
       </c>
       <c r="F84" s="46"/>
@@ -25119,14 +25214,14 @@
       <c r="C101" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="D101" s="75">
+      <c r="D101" s="70">
         <f>(4411753.022732-4410573.007165)/4410573.007165</f>
         <v>2.6754246332235797E-4</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="F101" s="75">
+      <c r="F101" s="70">
         <f>(4345655.991761-4410573.007165)/4410573.007165</f>
         <v>-1.471849922868115E-2</v>
       </c>
@@ -25151,14 +25246,14 @@
       <c r="C102" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="D102" s="75">
+      <c r="D102" s="70">
         <f>(5.067529-5.068654)/5.068654</f>
         <v>-2.2195241576955985E-4</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="F102" s="75">
+      <c r="F102" s="70">
         <f>(5.137299-5.068654)/5.068654</f>
         <v>1.3543043182667266E-2</v>
       </c>
@@ -25183,14 +25278,14 @@
       <c r="C103" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="D103" s="75">
+      <c r="D103" s="70">
         <f>(0.481785-0.481683)/0.481683</f>
         <v>2.1175752517744347E-4</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>840</v>
       </c>
-      <c r="F103" s="75">
+      <c r="F103" s="70">
         <f>(0.481806-0.481683)/0.481683</f>
         <v>2.5535466271394205E-4</v>
       </c>
@@ -25215,14 +25310,14 @@
       <c r="C104" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="D104" s="75">
+      <c r="D104" s="70">
         <f>(4.585744-4.586971)/4.586971</f>
         <v>-2.6749678600542474E-4</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="F104" s="75">
+      <c r="F104" s="70">
         <f>(4.655493-4.586971)/4.586971</f>
         <v>1.4938398346098057E-2</v>
       </c>
@@ -25379,14 +25474,14 @@
       <c r="C111" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="D111" s="75">
+      <c r="D111" s="70">
         <f>(20.238777-19.03653)/19.03653</f>
         <v>6.315473460762018E-2</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>842</v>
       </c>
-      <c r="F111" s="75">
+      <c r="F111" s="70">
         <f>(20.242415-19.03653)/19.03653</f>
         <v>6.3345840864905634E-2</v>
       </c>
@@ -25539,14 +25634,14 @@
       <c r="C122" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="D122" s="76">
+      <c r="D122" s="71">
         <f>(5412609.18507-5412221.140987)/5412221.140987</f>
         <v>7.1697750866193117E-5</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="F122" s="76">
+      <c r="F122" s="71">
         <f>(5355981.808256-5412221.140987)/5412221.140987</f>
         <v>-1.0391174208514336E-2</v>
       </c>
@@ -25559,14 +25654,14 @@
       <c r="C123" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="D123" s="76">
+      <c r="D123" s="71">
         <f>(0.196109-0.196121)/0.196121</f>
         <v>-6.1186716363797078E-5</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="F123" s="76">
+      <c r="F123" s="71">
         <f>(0.198156-0.196121)/0.196121</f>
         <v>1.0376247316707589E-2</v>
       </c>
@@ -25579,14 +25674,14 @@
       <c r="C124" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="D124" s="76">
+      <c r="D124" s="71">
         <f>(0.002381-0.002378)/0.002378</f>
         <v>1.2615643397813139E-3</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="F124" s="76">
+      <c r="F124" s="71">
         <f>(0.00238-0.002378)/0.002378</f>
         <v>8.410428931876642E-4</v>
       </c>
@@ -25599,14 +25694,14 @@
       <c r="C125" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="D125" s="76">
+      <c r="D125" s="71">
         <f>(0.193728-0.193742)/0.193742</f>
         <v>-7.2261048198048151E-5</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="F125" s="76">
+      <c r="F125" s="71">
         <f>(0.195777-0.193742)/0.193742</f>
         <v>1.0503659505940937E-2</v>
       </c>
@@ -26425,10 +26520,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414E3830-8474-43B5-80DD-A953F1321F04}">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27657,72 +27752,725 @@
       <c r="E85" s="8"/>
       <c r="F85" s="48"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D86" s="49"/>
       <c r="F86" s="49"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C87" s="3" t="s">
+    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B87" s="78" t="s">
+        <v>876</v>
+      </c>
+      <c r="C87" s="78" t="s">
+        <v>876</v>
+      </c>
+      <c r="D87" s="78"/>
+      <c r="E87" s="78" t="s">
+        <v>876</v>
+      </c>
+      <c r="F87" s="79"/>
+    </row>
+    <row r="88" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B88" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="D88" s="46"/>
+      <c r="E88" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="F88" s="46"/>
+    </row>
+    <row r="89" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B89" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="D89" s="47"/>
+      <c r="E89" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="F89" s="47"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B90" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" s="47"/>
+      <c r="E90" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F90" s="47"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B91" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="26"/>
+      <c r="E91" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F91" s="26"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B92" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" s="26"/>
+      <c r="E92" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F92" s="26"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B93" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="26"/>
+      <c r="E93" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F93" s="26"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B94" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94" s="26"/>
+      <c r="E94" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F94" s="26"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B95" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" s="47"/>
+      <c r="E95" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F95" s="47"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B96" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="D96" s="26"/>
+      <c r="E96" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="F96" s="26"/>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="47"/>
+      <c r="E97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="47"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B98" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="47"/>
+      <c r="E98" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="47"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B99" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D99" s="47"/>
+      <c r="E99" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F99" s="47"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B100" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="47"/>
+      <c r="E100" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="47"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B101" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D101" s="47"/>
+      <c r="E101" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F101" s="47"/>
+    </row>
+    <row r="102" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B102" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" s="47"/>
+      <c r="E102" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F102" s="47"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B103" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D103" s="47"/>
+      <c r="E103" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F103" s="47"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B104" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D104" s="47"/>
+      <c r="E104" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F104" s="47"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B105" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="D105" s="47">
+        <f>(6350996.227181-6352573.126293)/6352573.126293</f>
+        <v>-2.4822998187512698E-4</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="F105" s="47">
+        <f>(6285505.157571-6352573.126293)/6352573.126293</f>
+        <v>-1.0557606719143246E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B106" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="D106" s="47">
+        <f>(3.738403-3.737612)/3.737612</f>
+        <v>2.1163245409100415E-4</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="F106" s="47">
+        <f>(3.771458-3.737612)/3.737612</f>
+        <v>9.0555145905995716E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B107" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="D107" s="47">
+        <f>(0.567887-0.567883)/0.567883</f>
+        <v>7.0437044250382565E-6</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="F107" s="47">
+        <f>(0.567907-0.567883)/0.567883</f>
+        <v>4.2262226550229541E-5</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B108" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="D108" s="47">
+        <f>(3.170516-3.169729)/3.169729</f>
+        <v>2.4828620995684972E-4</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="F108" s="47">
+        <f>(3.203551-3.169729)/3.169729</f>
+        <v>1.0670312824850403E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B109" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D109" s="47"/>
+      <c r="E109" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F109" s="47"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B110" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110" s="47"/>
+      <c r="E110" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F110" s="47"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B111" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D111" s="47"/>
+      <c r="E111" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F111" s="47"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B112" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="D112" s="47"/>
+      <c r="E112" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F112" s="47"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B113" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D113" s="47"/>
+      <c r="E113" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F113" s="47"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B114" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D114" s="47"/>
+      <c r="E114" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F114" s="47"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B115" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D115" s="47"/>
+      <c r="E115" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F115" s="47"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B116" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D116" s="47"/>
+      <c r="E116" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F116" s="47"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B117" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D117" s="47"/>
+      <c r="E117" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F117" s="47"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B118" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="D118" s="47"/>
+      <c r="E118" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="F118" s="47"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B119" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D119" s="47"/>
+      <c r="E119" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F119" s="47"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B120" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="D120" s="47"/>
+      <c r="E120" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="F120" s="47"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="47"/>
+      <c r="E121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" s="47"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B122" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" s="47"/>
+      <c r="E122" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="47"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B123" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D123" s="47"/>
+      <c r="E123" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F123" s="47"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B124" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="47"/>
+      <c r="E124" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="47"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B125" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D125" s="47"/>
+      <c r="E125" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F125" s="47"/>
+    </row>
+    <row r="126" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B126" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D126" s="47"/>
+      <c r="E126" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F126" s="47"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B127" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="47"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="47"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B128" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="47"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="47"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B129" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="47"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="47"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B130" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C130" s="7"/>
+      <c r="D130" s="47"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="47"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B131" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="47"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="47"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B132" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="47"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="47"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B133" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="47"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="47"/>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B134" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="47"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="47"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B135" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="47"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="47"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B136" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C136" s="7"/>
+      <c r="D136" s="47"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="47"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B137" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="47"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="47"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B138" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" s="7"/>
+      <c r="D138" s="47"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="47"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B139" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="47"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="47"/>
+    </row>
+    <row r="140" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B140" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C140" s="8"/>
+      <c r="D140" s="48"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="48"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C142" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D87" s="49"/>
-      <c r="F87" s="49"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C88" s="3" t="s">
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C143" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D88" s="49"/>
-      <c r="F88" s="49"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C89" s="3" t="s">
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C144" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="D89" s="49"/>
-      <c r="F89" s="49"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C90" s="3" t="s">
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C145" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="D90" s="68"/>
-      <c r="F90" s="68"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D91" s="68"/>
-      <c r="F91" s="68"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C92" s="3" t="s">
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C147" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="D92" s="68"/>
-      <c r="F92" s="68"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C93" s="3" t="s">
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C148" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="D93" s="68"/>
-      <c r="F93" s="68"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C94" s="3" t="s">
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C149" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C95" s="3" t="s">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C150" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="D95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27808,7 +28556,7 @@
         <v>229</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="68" t="s">
         <v>229</v>
       </c>
       <c r="F4" s="18"/>
@@ -29359,13 +30107,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="72"/>
+      <c r="A1" s="76"/>
       <c r="B1" s="19"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="73"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="20"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -29539,13 +30287,13 @@
       <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="72"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="19"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="73"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="20"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
